--- a/excel/import_data.xlsx
+++ b/excel/import_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\import_excel_ci\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\import\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="7">
   <si>
     <t>NIS</t>
   </si>
@@ -35,10 +35,10 @@
     <t>ALAMAT</t>
   </si>
   <si>
-    <t>Fahmi</t>
+    <t>Hasan</t>
   </si>
   <si>
-    <t>Laki-laki</t>
+    <t>Laki</t>
   </si>
   <si>
     <t>Seroja</t>
@@ -94,6 +94,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>320677</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>1333500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>693260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23599777" y="314325"/>
+          <a:ext cx="1012823" cy="569435"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -383,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -395,9 +444,10 @@
     <col min="2" max="2" width="35.5703125" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="4" max="4" width="63.7109375" customWidth="1"/>
+    <col min="28" max="28" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -410,10 +460,82 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>132424</v>
+        <v>489124</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -423,10 +545,80 @@
       </c>
       <c r="D2" t="s">
         <v>6</v>
+      </c>
+      <c r="E2">
+        <v>489124</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>489124</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2">
+        <v>489124</v>
+      </c>
+      <c r="N2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2">
+        <v>489124</v>
+      </c>
+      <c r="R2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U2">
+        <v>489124</v>
+      </c>
+      <c r="V2" t="s">
+        <v>4</v>
+      </c>
+      <c r="W2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y2">
+        <v>489124</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/excel/import_data.xlsx
+++ b/excel/import_data.xlsx
@@ -24,7 +24,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="L14" authorId="0" shapeId="0">
+    <comment ref="L12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -468,7 +468,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -503,7 +503,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -712,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB27"/>
+  <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,6 +750,75 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
@@ -767,6 +836,77 @@
       <c r="E2" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="F2" s="11">
+        <v>150</v>
+      </c>
+      <c r="G2" s="11">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="11">
+        <v>16</v>
+      </c>
+      <c r="N2" s="11">
+        <v>60</v>
+      </c>
+      <c r="O2" s="11">
+        <v>161</v>
+      </c>
+      <c r="P2" s="13" t="str">
+        <f t="shared" ref="P2:P25" si="0">IF(M2&gt;=51,"KRITIS",IF(AND(M2&gt;=13, M2&lt;=50),"WASPADA",IF(M2&lt;13,"AMAN","belum diassesmen")))</f>
+        <v>WASPADA</v>
+      </c>
+      <c r="Q2" s="17" t="str">
+        <f t="shared" ref="Q2:Q25" si="1">IF(N2&gt;=61,"KRITIS",IF(AND(N2&gt;=31, N2&lt;=60),"WASPADA","AMAN"))</f>
+        <v>WASPADA</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -784,74 +924,76 @@
       <c r="E3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="F3" s="11">
+        <v>150</v>
+      </c>
+      <c r="G3" s="11">
         <v>9</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q3" s="1" t="s">
+      <c r="H3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="11">
         <v>16</v>
       </c>
-      <c r="R3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>27</v>
+      <c r="N3" s="11">
+        <v>60</v>
+      </c>
+      <c r="O3" s="11">
+        <v>161</v>
+      </c>
+      <c r="P3" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>WASPADA</v>
+      </c>
+      <c r="Q3" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>WASPADA</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="W3" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -874,7 +1016,7 @@
         <v>150</v>
       </c>
       <c r="G4" s="11">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>29</v>
@@ -892,21 +1034,21 @@
         <v>51</v>
       </c>
       <c r="M4" s="11">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="N4" s="11">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="O4" s="11">
         <v>161</v>
       </c>
-      <c r="P4" s="13" t="str">
-        <f t="shared" ref="P4:P27" si="0">IF(M4&gt;=51,"KRITIS",IF(AND(M4&gt;=13, M4&lt;=50),"WASPADA",IF(M4&lt;13,"AMAN","belum diassesmen")))</f>
+      <c r="P4" s="17" t="str">
+        <f t="shared" si="0"/>
         <v>WASPADA</v>
       </c>
-      <c r="Q4" s="17" t="str">
-        <f t="shared" ref="Q4:Q27" si="1">IF(N4&gt;=61,"KRITIS",IF(AND(N4&gt;=31, N4&lt;=60),"WASPADA","AMAN"))</f>
-        <v>WASPADA</v>
+      <c r="Q4" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>KRITIS</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>31</v>
@@ -924,7 +1066,7 @@
         <v>33</v>
       </c>
       <c r="W4" s="18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="X4" s="2" t="s">
         <v>32</v>
@@ -962,7 +1104,7 @@
         <v>150</v>
       </c>
       <c r="G5" s="11">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>29</v>
@@ -988,7 +1130,7 @@
       <c r="O5" s="11">
         <v>161</v>
       </c>
-      <c r="P5" s="13" t="str">
+      <c r="P5" s="17" t="str">
         <f t="shared" si="0"/>
         <v>WASPADA</v>
       </c>
@@ -1012,7 +1154,7 @@
         <v>33</v>
       </c>
       <c r="W5" s="18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="X5" s="2" t="s">
         <v>32</v>
@@ -1050,7 +1192,7 @@
         <v>150</v>
       </c>
       <c r="G6" s="11">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>29</v>
@@ -1068,7 +1210,7 @@
         <v>51</v>
       </c>
       <c r="M6" s="11">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="N6" s="11">
         <v>70</v>
@@ -1138,7 +1280,7 @@
         <v>150</v>
       </c>
       <c r="G7" s="11">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>29</v>
@@ -1155,28 +1297,28 @@
       <c r="L7" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="M7" s="11">
-        <v>16</v>
-      </c>
-      <c r="N7" s="11">
-        <v>60</v>
-      </c>
-      <c r="O7" s="11">
+      <c r="M7" s="16">
+        <v>82</v>
+      </c>
+      <c r="N7" s="16">
+        <v>5</v>
+      </c>
+      <c r="O7" s="16">
         <v>161</v>
       </c>
-      <c r="P7" s="17" t="str">
+      <c r="P7" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>WASPADA</v>
-      </c>
-      <c r="Q7" s="17" t="str">
+        <v>KRITIS</v>
+      </c>
+      <c r="Q7" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>WASPADA</v>
+        <v>AMAN</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="S7" s="7" t="s">
-        <v>52</v>
+      <c r="S7" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>64</v>
@@ -1223,10 +1365,10 @@
         <v>39</v>
       </c>
       <c r="F8" s="11">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="G8" s="11">
-        <v>13</v>
+        <v>185</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>29</v>
@@ -1234,37 +1376,37 @@
       <c r="I8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" s="15" t="s">
+      <c r="J8" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="14" t="s">
         <v>51</v>
       </c>
       <c r="L8" s="15" t="s">
         <v>51</v>
       </c>
       <c r="M8" s="11">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="N8" s="11">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="O8" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P8" s="17" t="str">
         <f t="shared" si="0"/>
         <v>WASPADA</v>
       </c>
-      <c r="Q8" s="13" t="str">
+      <c r="Q8" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>KRITIS</v>
+        <v>AMAN</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T8" s="2" t="s">
         <v>64</v>
@@ -1310,11 +1452,11 @@
       <c r="E9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="11">
-        <v>150</v>
-      </c>
-      <c r="G9" s="11">
-        <v>26</v>
+      <c r="F9" s="12">
+        <v>500</v>
+      </c>
+      <c r="G9" s="12">
+        <v>8</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>29</v>
@@ -1332,13 +1474,13 @@
         <v>51</v>
       </c>
       <c r="M9" s="16">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="N9" s="16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O9" s="16">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="P9" s="13" t="str">
         <f t="shared" si="0"/>
@@ -1351,9 +1493,7 @@
       <c r="R9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="S9" s="8" t="s">
-        <v>53</v>
-      </c>
+      <c r="S9" s="8"/>
       <c r="T9" s="2" t="s">
         <v>64</v>
       </c>
@@ -1364,7 +1504,7 @@
         <v>33</v>
       </c>
       <c r="W9" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="X9" s="2" t="s">
         <v>32</v>
@@ -1398,11 +1538,11 @@
       <c r="E10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="11">
-        <v>500</v>
-      </c>
-      <c r="G10" s="11">
-        <v>185</v>
+      <c r="F10" s="13">
+        <v>70</v>
+      </c>
+      <c r="G10" s="13">
+        <v>53</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>29</v>
@@ -1410,37 +1550,37 @@
       <c r="I10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="K10" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="M10" s="11">
-        <v>29</v>
-      </c>
-      <c r="N10" s="11">
-        <v>5</v>
+      <c r="J10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="O10" s="11">
-        <v>162</v>
-      </c>
-      <c r="P10" s="17" t="str">
+        <v>169</v>
+      </c>
+      <c r="P10" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>WASPADA</v>
-      </c>
-      <c r="Q10" s="15" t="str">
+        <v>KRITIS</v>
+      </c>
+      <c r="Q10" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>AMAN</v>
+        <v>KRITIS</v>
       </c>
       <c r="R10" s="2" t="s">
         <v>31</v>
       </c>
       <c r="S10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T10" s="2" t="s">
         <v>64</v>
@@ -1452,7 +1592,7 @@
         <v>33</v>
       </c>
       <c r="W10" s="18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="X10" s="2" t="s">
         <v>32</v>
@@ -1486,11 +1626,11 @@
       <c r="E11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="12">
-        <v>500</v>
-      </c>
-      <c r="G11" s="12">
-        <v>8</v>
+      <c r="F11" s="11">
+        <v>70</v>
+      </c>
+      <c r="G11" s="11">
+        <v>56</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>29</v>
@@ -1498,27 +1638,27 @@
       <c r="I11" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" s="15" t="s">
+      <c r="J11" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" s="14" t="s">
         <v>51</v>
       </c>
       <c r="L11" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="M11" s="16">
-        <v>54</v>
-      </c>
-      <c r="N11" s="16">
-        <v>0</v>
-      </c>
-      <c r="O11" s="16">
-        <v>150</v>
-      </c>
-      <c r="P11" s="13" t="str">
+      <c r="M11" s="11">
+        <v>16</v>
+      </c>
+      <c r="N11" s="11">
+        <v>5</v>
+      </c>
+      <c r="O11" s="11">
+        <v>169</v>
+      </c>
+      <c r="P11" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>KRITIS</v>
+        <v>WASPADA</v>
       </c>
       <c r="Q11" s="15" t="str">
         <f t="shared" si="1"/>
@@ -1527,7 +1667,9 @@
       <c r="R11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="S11" s="8"/>
+      <c r="S11" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="T11" s="2" t="s">
         <v>64</v>
       </c>
@@ -1538,7 +1680,7 @@
         <v>33</v>
       </c>
       <c r="W11" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="X11" s="2" t="s">
         <v>32</v>
@@ -1572,11 +1714,11 @@
       <c r="E12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="13">
-        <v>70</v>
-      </c>
-      <c r="G12" s="13">
-        <v>53</v>
+      <c r="F12" s="11">
+        <v>150</v>
+      </c>
+      <c r="G12" s="11">
+        <v>19</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>29</v>
@@ -1584,37 +1726,37 @@
       <c r="I12" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="N12" s="11" t="s">
-        <v>30</v>
+      <c r="J12" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="M12" s="11">
+        <v>15</v>
+      </c>
+      <c r="N12" s="11">
+        <v>55</v>
       </c>
       <c r="O12" s="11">
         <v>169</v>
       </c>
-      <c r="P12" s="13" t="str">
+      <c r="P12" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>KRITIS</v>
-      </c>
-      <c r="Q12" s="13" t="str">
+        <v>WASPADA</v>
+      </c>
+      <c r="Q12" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>KRITIS</v>
+        <v>WASPADA</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>31</v>
       </c>
       <c r="S12" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T12" s="2" t="s">
         <v>64</v>
@@ -1661,10 +1803,10 @@
         <v>42</v>
       </c>
       <c r="F13" s="11">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="G13" s="11">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>29</v>
@@ -1682,7 +1824,7 @@
         <v>51</v>
       </c>
       <c r="M13" s="11">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N13" s="11">
         <v>5</v>
@@ -1702,7 +1844,7 @@
         <v>31</v>
       </c>
       <c r="S13" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T13" s="2" t="s">
         <v>64</v>
@@ -1749,16 +1891,16 @@
         <v>43</v>
       </c>
       <c r="F14" s="11">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="G14" s="11">
-        <v>19</v>
+        <v>520</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="13" t="s">
-        <v>30</v>
+      <c r="I14" s="14" t="s">
+        <v>51</v>
       </c>
       <c r="J14" s="14" t="s">
         <v>51</v>
@@ -1770,27 +1912,27 @@
         <v>51</v>
       </c>
       <c r="M14" s="11">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="N14" s="11">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="O14" s="11">
-        <v>169</v>
-      </c>
-      <c r="P14" s="17" t="str">
+        <v>151</v>
+      </c>
+      <c r="P14" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>WASPADA</v>
-      </c>
-      <c r="Q14" s="17" t="str">
+        <v>KRITIS</v>
+      </c>
+      <c r="Q14" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>WASPADA</v>
+        <v>AMAN</v>
       </c>
       <c r="R14" s="2" t="s">
         <v>31</v>
       </c>
       <c r="S14" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="T14" s="2" t="s">
         <v>64</v>
@@ -1802,7 +1944,7 @@
         <v>33</v>
       </c>
       <c r="W14" s="18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="X14" s="2" t="s">
         <v>32</v>
@@ -1837,38 +1979,38 @@
         <v>43</v>
       </c>
       <c r="F15" s="11">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="G15" s="11">
-        <v>66</v>
+        <v>505</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="K15" s="14" t="s">
+      <c r="I15" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15" s="15" t="s">
         <v>51</v>
       </c>
       <c r="L15" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="M15" s="11">
-        <v>13</v>
-      </c>
-      <c r="N15" s="11">
-        <v>5</v>
-      </c>
-      <c r="O15" s="11">
-        <v>169</v>
-      </c>
-      <c r="P15" s="17" t="str">
+      <c r="M15" s="16">
+        <v>81</v>
+      </c>
+      <c r="N15" s="16">
+        <v>0</v>
+      </c>
+      <c r="O15" s="16">
+        <v>152</v>
+      </c>
+      <c r="P15" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>WASPADA</v>
+        <v>KRITIS</v>
       </c>
       <c r="Q15" s="15" t="str">
         <f t="shared" si="1"/>
@@ -1877,8 +2019,8 @@
       <c r="R15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="S15" s="7" t="s">
-        <v>58</v>
+      <c r="S15" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="T15" s="2" t="s">
         <v>64</v>
@@ -1890,7 +2032,7 @@
         <v>33</v>
       </c>
       <c r="W15" s="18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="X15" s="2" t="s">
         <v>32</v>
@@ -1925,34 +2067,34 @@
         <v>44</v>
       </c>
       <c r="F16" s="11">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="G16" s="11">
-        <v>520</v>
+        <v>37</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="K16" s="14" t="s">
+      <c r="I16" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" s="15" t="s">
         <v>51</v>
       </c>
       <c r="L16" s="15" t="s">
         <v>51</v>
       </c>
       <c r="M16" s="11">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="N16" s="11">
         <v>0</v>
       </c>
       <c r="O16" s="11">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="P16" s="13" t="str">
         <f t="shared" si="0"/>
@@ -1966,7 +2108,7 @@
         <v>31</v>
       </c>
       <c r="S16" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T16" s="2" t="s">
         <v>64</v>
@@ -1978,7 +2120,7 @@
         <v>33</v>
       </c>
       <c r="W16" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X16" s="2" t="s">
         <v>32</v>
@@ -2013,38 +2155,38 @@
         <v>45</v>
       </c>
       <c r="F17" s="11">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="G17" s="11">
-        <v>505</v>
+        <v>1</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="K17" s="15" t="s">
+      <c r="I17" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17" s="14" t="s">
         <v>51</v>
       </c>
       <c r="L17" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="M17" s="16">
-        <v>81</v>
-      </c>
-      <c r="N17" s="16">
-        <v>0</v>
-      </c>
-      <c r="O17" s="16">
-        <v>152</v>
-      </c>
-      <c r="P17" s="13" t="str">
+      <c r="M17" s="11">
+        <v>13</v>
+      </c>
+      <c r="N17" s="11">
+        <v>25</v>
+      </c>
+      <c r="O17" s="11">
+        <v>161</v>
+      </c>
+      <c r="P17" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>KRITIS</v>
+        <v>WASPADA</v>
       </c>
       <c r="Q17" s="15" t="str">
         <f t="shared" si="1"/>
@@ -2053,8 +2195,8 @@
       <c r="R17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="S17" s="8" t="s">
-        <v>60</v>
+      <c r="S17" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="T17" s="2" t="s">
         <v>64</v>
@@ -2065,8 +2207,8 @@
       <c r="V17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="W17" s="18" t="s">
-        <v>69</v>
+      <c r="W17" s="19" t="s">
+        <v>64</v>
       </c>
       <c r="X17" s="2" t="s">
         <v>32</v>
@@ -2104,7 +2246,7 @@
         <v>150</v>
       </c>
       <c r="G18" s="11">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>29</v>
@@ -2112,37 +2254,37 @@
       <c r="I18" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="J18" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="K18" s="15" t="s">
+      <c r="J18" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="K18" s="14" t="s">
         <v>51</v>
       </c>
       <c r="L18" s="15" t="s">
         <v>51</v>
       </c>
       <c r="M18" s="11">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="N18" s="11">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="O18" s="11">
-        <v>165</v>
-      </c>
-      <c r="P18" s="13" t="str">
+        <v>161</v>
+      </c>
+      <c r="P18" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>KRITIS</v>
-      </c>
-      <c r="Q18" s="15" t="str">
+        <v>WASPADA</v>
+      </c>
+      <c r="Q18" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>AMAN</v>
+        <v>WASPADA</v>
       </c>
       <c r="R18" s="2" t="s">
         <v>31</v>
       </c>
       <c r="S18" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="T18" s="2" t="s">
         <v>64</v>
@@ -2154,7 +2296,7 @@
         <v>33</v>
       </c>
       <c r="W18" s="18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="X18" s="2" t="s">
         <v>32</v>
@@ -2192,7 +2334,7 @@
         <v>150</v>
       </c>
       <c r="G19" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>29</v>
@@ -2210,10 +2352,10 @@
         <v>51</v>
       </c>
       <c r="M19" s="11">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N19" s="11">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="O19" s="11">
         <v>161</v>
@@ -2241,8 +2383,8 @@
       <c r="V19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="W19" s="19" t="s">
-        <v>64</v>
+      <c r="W19" s="18" t="s">
+        <v>71</v>
       </c>
       <c r="X19" s="2" t="s">
         <v>32</v>
@@ -2277,10 +2419,10 @@
         <v>46</v>
       </c>
       <c r="F20" s="11">
-        <v>150</v>
-      </c>
-      <c r="G20" s="11">
-        <v>2</v>
+        <v>70</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>29</v>
@@ -2288,20 +2430,20 @@
       <c r="I20" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="J20" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="K20" s="14" t="s">
+      <c r="J20" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20" s="15" t="s">
         <v>51</v>
       </c>
       <c r="L20" s="15" t="s">
         <v>51</v>
       </c>
       <c r="M20" s="11">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="N20" s="11">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="O20" s="11">
         <v>161</v>
@@ -2310,15 +2452,15 @@
         <f t="shared" si="0"/>
         <v>WASPADA</v>
       </c>
-      <c r="Q20" s="17" t="str">
+      <c r="Q20" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>WASPADA</v>
+        <v>KRITIS</v>
       </c>
       <c r="R20" s="2" t="s">
         <v>31</v>
       </c>
       <c r="S20" s="7" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="T20" s="2" t="s">
         <v>64</v>
@@ -2330,7 +2472,7 @@
         <v>33</v>
       </c>
       <c r="W20" s="18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X20" s="2" t="s">
         <v>32</v>
@@ -2365,10 +2507,10 @@
         <v>46</v>
       </c>
       <c r="F21" s="11">
-        <v>150</v>
-      </c>
-      <c r="G21" s="11">
-        <v>3</v>
+        <v>70</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>29</v>
@@ -2376,17 +2518,17 @@
       <c r="I21" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="J21" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="K21" s="14" t="s">
+      <c r="J21" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="K21" s="15" t="s">
         <v>51</v>
       </c>
       <c r="L21" s="15" t="s">
         <v>51</v>
       </c>
       <c r="M21" s="11">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="N21" s="11">
         <v>30</v>
@@ -2398,7 +2540,7 @@
         <f t="shared" si="0"/>
         <v>WASPADA</v>
       </c>
-      <c r="Q21" s="15" t="str">
+      <c r="Q21" s="13" t="str">
         <f t="shared" si="1"/>
         <v>AMAN</v>
       </c>
@@ -2406,7 +2548,7 @@
         <v>31</v>
       </c>
       <c r="S21" s="7" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="T21" s="2" t="s">
         <v>64</v>
@@ -2418,7 +2560,7 @@
         <v>33</v>
       </c>
       <c r="W21" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X21" s="2" t="s">
         <v>32</v>
@@ -2456,7 +2598,7 @@
         <v>70</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>29</v>
@@ -2474,21 +2616,21 @@
         <v>51</v>
       </c>
       <c r="M22" s="11">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="N22" s="11">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="O22" s="11">
         <v>161</v>
       </c>
-      <c r="P22" s="17" t="str">
+      <c r="P22" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>WASPADA</v>
-      </c>
-      <c r="Q22" s="13" t="str">
+        <v>KRITIS</v>
+      </c>
+      <c r="Q22" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>KRITIS</v>
+        <v>AMAN</v>
       </c>
       <c r="R22" s="2" t="s">
         <v>31</v>
@@ -2543,14 +2685,14 @@
       <c r="F23" s="11">
         <v>70</v>
       </c>
-      <c r="G23" s="11" t="s">
-        <v>48</v>
+      <c r="G23" s="11">
+        <v>5</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I23" s="13" t="s">
-        <v>30</v>
+      <c r="I23" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="J23" s="15" t="s">
         <v>51</v>
@@ -2562,27 +2704,27 @@
         <v>51</v>
       </c>
       <c r="M23" s="11">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="N23" s="11">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="O23" s="11">
         <v>161</v>
       </c>
-      <c r="P23" s="17" t="str">
+      <c r="P23" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>WASPADA</v>
+        <v>KRITIS</v>
       </c>
       <c r="Q23" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>AMAN</v>
+        <v>KRITIS</v>
       </c>
       <c r="R23" s="2" t="s">
         <v>31</v>
       </c>
       <c r="S23" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T23" s="2" t="s">
         <v>64</v>
@@ -2594,7 +2736,7 @@
         <v>33</v>
       </c>
       <c r="W23" s="18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X23" s="2" t="s">
         <v>32</v>
@@ -2632,7 +2774,7 @@
         <v>70</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>29</v>
@@ -2650,27 +2792,27 @@
         <v>51</v>
       </c>
       <c r="M24" s="11">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="N24" s="11">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="O24" s="11">
         <v>161</v>
       </c>
-      <c r="P24" s="13" t="str">
+      <c r="P24" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>KRITIS</v>
-      </c>
-      <c r="Q24" s="14" t="str">
+        <v>WASPADA</v>
+      </c>
+      <c r="Q24" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>AMAN</v>
+        <v>WASPADA</v>
       </c>
       <c r="R24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="S24" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T24" s="2" t="s">
         <v>64</v>
@@ -2682,7 +2824,7 @@
         <v>33</v>
       </c>
       <c r="W24" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X24" s="2" t="s">
         <v>32</v>
@@ -2720,13 +2862,13 @@
         <v>70</v>
       </c>
       <c r="G25" s="11">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="15" t="s">
-        <v>51</v>
+      <c r="I25" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="J25" s="15" t="s">
         <v>51</v>
@@ -2738,21 +2880,21 @@
         <v>51</v>
       </c>
       <c r="M25" s="11">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="N25" s="11">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="O25" s="11">
         <v>161</v>
       </c>
-      <c r="P25" s="13" t="str">
+      <c r="P25" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>KRITIS</v>
-      </c>
-      <c r="Q25" s="13" t="str">
+        <v>WASPADA</v>
+      </c>
+      <c r="Q25" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>KRITIS</v>
+        <v>WASPADA</v>
       </c>
       <c r="R25" s="2" t="s">
         <v>31</v>
@@ -2785,152 +2927,6 @@
         <v>73</v>
       </c>
       <c r="AB25" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="F26" s="11">
-        <v>70</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="J26" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="K26" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="L26" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="M26" s="11">
-        <v>45</v>
-      </c>
-      <c r="N26" s="11">
-        <v>35</v>
-      </c>
-      <c r="O26" s="11">
-        <v>161</v>
-      </c>
-      <c r="P26" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>WASPADA</v>
-      </c>
-      <c r="Q26" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>WASPADA</v>
-      </c>
-      <c r="R26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S26" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="T26" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="U26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V26" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W26" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="X26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y26" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z26" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA26" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB26" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="F27" s="11">
-        <v>70</v>
-      </c>
-      <c r="G27" s="11">
-        <v>35</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="J27" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="K27" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="L27" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="M27" s="11">
-        <v>15</v>
-      </c>
-      <c r="N27" s="11">
-        <v>35</v>
-      </c>
-      <c r="O27" s="11">
-        <v>161</v>
-      </c>
-      <c r="P27" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>WASPADA</v>
-      </c>
-      <c r="Q27" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>WASPADA</v>
-      </c>
-      <c r="R27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="T27" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="U27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V27" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W27" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="X27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y27" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z27" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA27" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB27" s="2" t="s">
         <v>73</v>
       </c>
     </row>
